--- a/Design/Print/printing.xlsx
+++ b/Design/Print/printing.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
     <sheet name="排版" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>2月封皮</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -673,12 +673,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -740,6 +734,12 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -754,31 +754,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:V38" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:V38" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:V38"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="列1" dataDxfId="23"/>
-    <tableColumn id="2" name="列2" dataDxfId="22"/>
-    <tableColumn id="3" name="列3" dataDxfId="21"/>
-    <tableColumn id="4" name="列4" dataDxfId="20"/>
-    <tableColumn id="5" name="列5" dataDxfId="3"/>
-    <tableColumn id="6" name="列6" dataDxfId="2"/>
-    <tableColumn id="7" name="列7" dataDxfId="1"/>
-    <tableColumn id="8" name="列8" dataDxfId="0"/>
-    <tableColumn id="9" name="列9" dataDxfId="19"/>
-    <tableColumn id="10" name="列10" dataDxfId="18"/>
-    <tableColumn id="11" name="列11" dataDxfId="17"/>
-    <tableColumn id="12" name="列12" dataDxfId="16"/>
-    <tableColumn id="13" name="列13" dataDxfId="15"/>
-    <tableColumn id="14" name="列14" dataDxfId="14"/>
-    <tableColumn id="15" name="列15" dataDxfId="13"/>
-    <tableColumn id="16" name="列16" dataDxfId="12"/>
-    <tableColumn id="17" name="列17" dataDxfId="11"/>
-    <tableColumn id="18" name="列18" dataDxfId="10"/>
-    <tableColumn id="19" name="列19" dataDxfId="9"/>
-    <tableColumn id="20" name="列20" dataDxfId="8"/>
-    <tableColumn id="21" name="列21" dataDxfId="7"/>
-    <tableColumn id="22" name="列22" dataDxfId="6"/>
+    <tableColumn id="1" name="列1" dataDxfId="21"/>
+    <tableColumn id="2" name="列2" dataDxfId="20"/>
+    <tableColumn id="3" name="列3" dataDxfId="19"/>
+    <tableColumn id="4" name="列4" dataDxfId="18"/>
+    <tableColumn id="5" name="列5" dataDxfId="17"/>
+    <tableColumn id="6" name="列6" dataDxfId="16"/>
+    <tableColumn id="7" name="列7" dataDxfId="15"/>
+    <tableColumn id="8" name="列8" dataDxfId="14"/>
+    <tableColumn id="9" name="列9" dataDxfId="13"/>
+    <tableColumn id="10" name="列10" dataDxfId="12"/>
+    <tableColumn id="11" name="列11" dataDxfId="11"/>
+    <tableColumn id="12" name="列12" dataDxfId="10"/>
+    <tableColumn id="13" name="列13" dataDxfId="9"/>
+    <tableColumn id="14" name="列14" dataDxfId="8"/>
+    <tableColumn id="15" name="列15" dataDxfId="7"/>
+    <tableColumn id="16" name="列16" dataDxfId="6"/>
+    <tableColumn id="17" name="列17" dataDxfId="5"/>
+    <tableColumn id="18" name="列18" dataDxfId="4"/>
+    <tableColumn id="19" name="列19" dataDxfId="3"/>
+    <tableColumn id="20" name="列20" dataDxfId="2"/>
+    <tableColumn id="21" name="列21" dataDxfId="1"/>
+    <tableColumn id="22" name="列22" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3542,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171:B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3689,7 +3689,7 @@
         <v>19</v>
       </c>
       <c r="L8" s="69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M8" s="69">
         <v>40</v>
@@ -3733,7 +3733,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="69">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M9" s="69">
         <v>38</v>
@@ -3777,7 +3777,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="69">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M10" s="69">
         <v>36</v>
@@ -3821,7 +3821,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="69">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M11" s="69">
         <v>34</v>
@@ -3865,7 +3865,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M12" s="69">
         <v>32</v>
@@ -3908,7 +3908,7 @@
         <v>42072</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41">
         <v>28</v>
       </c>
@@ -3921,6 +3921,24 @@
       <c r="D15" s="10">
         <v>42073</v>
       </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="68"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="36">
@@ -3935,8 +3953,38 @@
       <c r="D16" s="8">
         <v>42074</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F16" s="69">
+        <v>11</v>
+      </c>
+      <c r="G16" s="69">
+        <v>60</v>
+      </c>
+      <c r="H16" s="69">
+        <v>41</v>
+      </c>
+      <c r="I16" s="69">
+        <v>42</v>
+      </c>
+      <c r="J16" s="69">
+        <v>59</v>
+      </c>
+      <c r="L16" s="69">
+        <v>16</v>
+      </c>
+      <c r="M16" s="69">
+        <v>80</v>
+      </c>
+      <c r="N16" s="69">
+        <v>61</v>
+      </c>
+      <c r="O16" s="69">
+        <v>62</v>
+      </c>
+      <c r="P16" s="69">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="36">
         <v>32</v>
       </c>
@@ -3949,8 +3997,38 @@
       <c r="D17" s="10">
         <v>42075</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="69">
+        <v>12</v>
+      </c>
+      <c r="G17" s="69">
+        <v>58</v>
+      </c>
+      <c r="H17" s="69">
+        <v>43</v>
+      </c>
+      <c r="I17" s="69">
+        <v>44</v>
+      </c>
+      <c r="J17" s="69">
+        <v>57</v>
+      </c>
+      <c r="L17" s="69">
+        <v>17</v>
+      </c>
+      <c r="M17" s="69">
+        <v>78</v>
+      </c>
+      <c r="N17" s="69">
+        <v>63</v>
+      </c>
+      <c r="O17" s="69">
+        <v>64</v>
+      </c>
+      <c r="P17" s="69">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="41">
         <v>34</v>
       </c>
@@ -3963,8 +4041,38 @@
       <c r="D18" s="8">
         <v>42076</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="69">
+        <v>13</v>
+      </c>
+      <c r="G18" s="69">
+        <v>56</v>
+      </c>
+      <c r="H18" s="69">
+        <v>45</v>
+      </c>
+      <c r="I18" s="69">
+        <v>46</v>
+      </c>
+      <c r="J18" s="69">
+        <v>55</v>
+      </c>
+      <c r="L18" s="69">
+        <v>18</v>
+      </c>
+      <c r="M18" s="69">
+        <v>76</v>
+      </c>
+      <c r="N18" s="69">
+        <v>65</v>
+      </c>
+      <c r="O18" s="69">
+        <v>66</v>
+      </c>
+      <c r="P18" s="69">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="36">
         <v>36</v>
       </c>
@@ -3977,8 +4085,38 @@
       <c r="D19" s="10">
         <v>42077</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="69">
+        <v>14</v>
+      </c>
+      <c r="G19" s="69">
+        <v>54</v>
+      </c>
+      <c r="H19" s="69">
+        <v>47</v>
+      </c>
+      <c r="I19" s="69">
+        <v>48</v>
+      </c>
+      <c r="J19" s="69">
+        <v>53</v>
+      </c>
+      <c r="L19" s="69">
+        <v>19</v>
+      </c>
+      <c r="M19" s="69">
+        <v>74</v>
+      </c>
+      <c r="N19" s="69">
+        <v>67</v>
+      </c>
+      <c r="O19" s="69">
+        <v>68</v>
+      </c>
+      <c r="P19" s="69">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36">
         <v>38</v>
       </c>
@@ -3991,8 +4129,38 @@
       <c r="D20" s="8">
         <v>42078</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="69">
+        <v>15</v>
+      </c>
+      <c r="G20" s="69">
+        <v>52</v>
+      </c>
+      <c r="H20" s="69">
+        <v>49</v>
+      </c>
+      <c r="I20" s="69">
+        <v>50</v>
+      </c>
+      <c r="J20" s="69">
+        <v>51</v>
+      </c>
+      <c r="L20" s="69">
+        <v>20</v>
+      </c>
+      <c r="M20" s="69">
+        <v>72</v>
+      </c>
+      <c r="N20" s="69">
+        <v>69</v>
+      </c>
+      <c r="O20" s="69">
+        <v>70</v>
+      </c>
+      <c r="P20" s="69">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="41">
         <v>40</v>
       </c>
@@ -4008,7 +4176,7 @@
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
         <v>42</v>
       </c>
@@ -4024,7 +4192,7 @@
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
         <v>44</v>
       </c>
@@ -4038,9 +4206,26 @@
         <v>42081</v>
       </c>
       <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F23" s="67"/>
+      <c r="G23" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="68"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="68"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="34">
         <v>46</v>
       </c>
@@ -4054,9 +4239,38 @@
         <v>42082</v>
       </c>
       <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F24" s="69">
+        <v>21</v>
+      </c>
+      <c r="G24" s="69">
+        <v>100</v>
+      </c>
+      <c r="H24" s="69">
+        <v>81</v>
+      </c>
+      <c r="I24" s="69">
+        <v>82</v>
+      </c>
+      <c r="J24" s="69">
+        <v>99</v>
+      </c>
+      <c r="L24" s="69">
+        <v>21</v>
+      </c>
+      <c r="M24" s="69">
+        <v>120</v>
+      </c>
+      <c r="N24" s="69">
+        <v>101</v>
+      </c>
+      <c r="O24" s="69">
+        <v>102</v>
+      </c>
+      <c r="P24" s="69">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
         <v>48</v>
       </c>
@@ -4070,9 +4284,38 @@
         <v>42083</v>
       </c>
       <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F25" s="69">
+        <v>22</v>
+      </c>
+      <c r="G25" s="69">
+        <v>98</v>
+      </c>
+      <c r="H25" s="69">
+        <v>83</v>
+      </c>
+      <c r="I25" s="69">
+        <v>84</v>
+      </c>
+      <c r="J25" s="69">
+        <v>97</v>
+      </c>
+      <c r="L25" s="69">
+        <v>22</v>
+      </c>
+      <c r="M25" s="69">
+        <v>118</v>
+      </c>
+      <c r="N25" s="69">
+        <v>103</v>
+      </c>
+      <c r="O25" s="69">
+        <v>104</v>
+      </c>
+      <c r="P25" s="69">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="33">
         <v>50</v>
       </c>
@@ -4086,9 +4329,38 @@
         <v>42084</v>
       </c>
       <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F26" s="69">
+        <v>23</v>
+      </c>
+      <c r="G26" s="69">
+        <v>96</v>
+      </c>
+      <c r="H26" s="69">
+        <v>85</v>
+      </c>
+      <c r="I26" s="69">
+        <v>86</v>
+      </c>
+      <c r="J26" s="69">
+        <v>95</v>
+      </c>
+      <c r="L26" s="69">
+        <v>23</v>
+      </c>
+      <c r="M26" s="69">
+        <v>116</v>
+      </c>
+      <c r="N26" s="69">
+        <v>105</v>
+      </c>
+      <c r="O26" s="69">
+        <v>106</v>
+      </c>
+      <c r="P26" s="69">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="34">
         <v>52</v>
       </c>
@@ -4102,9 +4374,38 @@
         <v>42085</v>
       </c>
       <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F27" s="69">
+        <v>24</v>
+      </c>
+      <c r="G27" s="69">
+        <v>94</v>
+      </c>
+      <c r="H27" s="69">
+        <v>87</v>
+      </c>
+      <c r="I27" s="69">
+        <v>88</v>
+      </c>
+      <c r="J27" s="69">
+        <v>93</v>
+      </c>
+      <c r="L27" s="69">
+        <v>24</v>
+      </c>
+      <c r="M27" s="69">
+        <v>114</v>
+      </c>
+      <c r="N27" s="69">
+        <v>107</v>
+      </c>
+      <c r="O27" s="69">
+        <v>108</v>
+      </c>
+      <c r="P27" s="69">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="33">
         <v>54</v>
       </c>
@@ -4118,9 +4419,38 @@
         <v>42086</v>
       </c>
       <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F28" s="69">
+        <v>25</v>
+      </c>
+      <c r="G28" s="69">
+        <v>92</v>
+      </c>
+      <c r="H28" s="69">
+        <v>89</v>
+      </c>
+      <c r="I28" s="69">
+        <v>90</v>
+      </c>
+      <c r="J28" s="69">
+        <v>91</v>
+      </c>
+      <c r="L28" s="69">
+        <v>25</v>
+      </c>
+      <c r="M28" s="69">
+        <v>112</v>
+      </c>
+      <c r="N28" s="69">
+        <v>109</v>
+      </c>
+      <c r="O28" s="69">
+        <v>110</v>
+      </c>
+      <c r="P28" s="69">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
         <v>56</v>
       </c>
@@ -4136,7 +4466,7 @@
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="34">
         <v>58</v>
       </c>
@@ -4152,7 +4482,7 @@
       <c r="E30" s="66"/>
       <c r="F30" s="66"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
         <v>60</v>
       </c>
@@ -4166,9 +4496,26 @@
         <v>42089</v>
       </c>
       <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F31" s="67"/>
+      <c r="G31" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="68"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="68"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="35">
         <v>62</v>
       </c>
@@ -4182,9 +4529,38 @@
         <v>42090</v>
       </c>
       <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-    </row>
-    <row r="33" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="69">
+        <v>21</v>
+      </c>
+      <c r="G32" s="69">
+        <v>140</v>
+      </c>
+      <c r="H32" s="69">
+        <v>121</v>
+      </c>
+      <c r="I32" s="69">
+        <v>122</v>
+      </c>
+      <c r="J32" s="69">
+        <v>139</v>
+      </c>
+      <c r="L32" s="69">
+        <v>21</v>
+      </c>
+      <c r="M32" s="69">
+        <v>160</v>
+      </c>
+      <c r="N32" s="69">
+        <v>141</v>
+      </c>
+      <c r="O32" s="69">
+        <v>142</v>
+      </c>
+      <c r="P32" s="69">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="40">
         <v>64</v>
       </c>
@@ -4198,7 +4574,36 @@
         <v>42091</v>
       </c>
       <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
+      <c r="F33" s="69">
+        <v>22</v>
+      </c>
+      <c r="G33" s="69">
+        <v>138</v>
+      </c>
+      <c r="H33" s="69">
+        <v>123</v>
+      </c>
+      <c r="I33" s="69">
+        <v>124</v>
+      </c>
+      <c r="J33" s="69">
+        <v>137</v>
+      </c>
+      <c r="L33" s="69">
+        <v>22</v>
+      </c>
+      <c r="M33" s="69">
+        <v>158</v>
+      </c>
+      <c r="N33" s="69">
+        <v>143</v>
+      </c>
+      <c r="O33" s="69">
+        <v>144</v>
+      </c>
+      <c r="P33" s="69">
+        <v>157</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="35">
@@ -4214,7 +4619,36 @@
         <v>42092</v>
       </c>
       <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
+      <c r="F34" s="69">
+        <v>23</v>
+      </c>
+      <c r="G34" s="69">
+        <v>136</v>
+      </c>
+      <c r="H34" s="69">
+        <v>125</v>
+      </c>
+      <c r="I34" s="69">
+        <v>126</v>
+      </c>
+      <c r="J34" s="69">
+        <v>135</v>
+      </c>
+      <c r="L34" s="69">
+        <v>23</v>
+      </c>
+      <c r="M34" s="69">
+        <v>156</v>
+      </c>
+      <c r="N34" s="69">
+        <v>145</v>
+      </c>
+      <c r="O34" s="69">
+        <v>146</v>
+      </c>
+      <c r="P34" s="69">
+        <v>155</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="35">
@@ -4230,7 +4664,36 @@
         <v>42093</v>
       </c>
       <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
+      <c r="F35" s="69">
+        <v>24</v>
+      </c>
+      <c r="G35" s="69">
+        <v>134</v>
+      </c>
+      <c r="H35" s="69">
+        <v>127</v>
+      </c>
+      <c r="I35" s="69">
+        <v>128</v>
+      </c>
+      <c r="J35" s="69">
+        <v>133</v>
+      </c>
+      <c r="L35" s="69">
+        <v>24</v>
+      </c>
+      <c r="M35" s="69">
+        <v>154</v>
+      </c>
+      <c r="N35" s="69">
+        <v>147</v>
+      </c>
+      <c r="O35" s="69">
+        <v>148</v>
+      </c>
+      <c r="P35" s="69">
+        <v>153</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="40">
@@ -4246,7 +4709,36 @@
         <v>42094</v>
       </c>
       <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
+      <c r="F36" s="69">
+        <v>25</v>
+      </c>
+      <c r="G36" s="69">
+        <v>132</v>
+      </c>
+      <c r="H36" s="69">
+        <v>129</v>
+      </c>
+      <c r="I36" s="69">
+        <v>130</v>
+      </c>
+      <c r="J36" s="69">
+        <v>131</v>
+      </c>
+      <c r="L36" s="69">
+        <v>25</v>
+      </c>
+      <c r="M36" s="69">
+        <v>152</v>
+      </c>
+      <c r="N36" s="69">
+        <v>149</v>
+      </c>
+      <c r="O36" s="69">
+        <v>150</v>
+      </c>
+      <c r="P36" s="69">
+        <v>151</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="35">
@@ -4280,7 +4772,7 @@
       <c r="E38" s="66"/>
       <c r="F38" s="66"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="40">
         <v>76</v>
       </c>
@@ -4294,7 +4786,24 @@
         <v>22</v>
       </c>
       <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="68"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="68"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="35">
@@ -4310,7 +4819,36 @@
         <v>42125</v>
       </c>
       <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
+      <c r="F40" s="69">
+        <v>21</v>
+      </c>
+      <c r="G40" s="69">
+        <v>180</v>
+      </c>
+      <c r="H40" s="69">
+        <v>161</v>
+      </c>
+      <c r="I40" s="69">
+        <v>162</v>
+      </c>
+      <c r="J40" s="69">
+        <v>179</v>
+      </c>
+      <c r="L40" s="69">
+        <v>21</v>
+      </c>
+      <c r="M40" s="69">
+        <v>200</v>
+      </c>
+      <c r="N40" s="69">
+        <v>181</v>
+      </c>
+      <c r="O40" s="69">
+        <v>182</v>
+      </c>
+      <c r="P40" s="69">
+        <v>199</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="35">
@@ -4326,7 +4864,36 @@
         <v>42126</v>
       </c>
       <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
+      <c r="F41" s="69">
+        <v>22</v>
+      </c>
+      <c r="G41" s="69">
+        <v>178</v>
+      </c>
+      <c r="H41" s="69">
+        <v>163</v>
+      </c>
+      <c r="I41" s="69">
+        <v>164</v>
+      </c>
+      <c r="J41" s="69">
+        <v>177</v>
+      </c>
+      <c r="L41" s="69">
+        <v>22</v>
+      </c>
+      <c r="M41" s="69">
+        <v>198</v>
+      </c>
+      <c r="N41" s="69">
+        <v>183</v>
+      </c>
+      <c r="O41" s="69">
+        <v>184</v>
+      </c>
+      <c r="P41" s="69">
+        <v>197</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="32">
@@ -4342,7 +4909,36 @@
         <v>42127</v>
       </c>
       <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
+      <c r="F42" s="69">
+        <v>23</v>
+      </c>
+      <c r="G42" s="69">
+        <v>176</v>
+      </c>
+      <c r="H42" s="69">
+        <v>165</v>
+      </c>
+      <c r="I42" s="69">
+        <v>166</v>
+      </c>
+      <c r="J42" s="69">
+        <v>175</v>
+      </c>
+      <c r="L42" s="69">
+        <v>23</v>
+      </c>
+      <c r="M42" s="69">
+        <v>196</v>
+      </c>
+      <c r="N42" s="69">
+        <v>185</v>
+      </c>
+      <c r="O42" s="69">
+        <v>186</v>
+      </c>
+      <c r="P42" s="69">
+        <v>195</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="31">
@@ -4358,7 +4954,36 @@
         <v>42128</v>
       </c>
       <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
+      <c r="F43" s="69">
+        <v>24</v>
+      </c>
+      <c r="G43" s="69">
+        <v>174</v>
+      </c>
+      <c r="H43" s="69">
+        <v>167</v>
+      </c>
+      <c r="I43" s="69">
+        <v>168</v>
+      </c>
+      <c r="J43" s="69">
+        <v>173</v>
+      </c>
+      <c r="L43" s="69">
+        <v>24</v>
+      </c>
+      <c r="M43" s="69">
+        <v>194</v>
+      </c>
+      <c r="N43" s="69">
+        <v>187</v>
+      </c>
+      <c r="O43" s="69">
+        <v>188</v>
+      </c>
+      <c r="P43" s="69">
+        <v>193</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="31">
@@ -4374,7 +4999,36 @@
         <v>42129</v>
       </c>
       <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
+      <c r="F44" s="69">
+        <v>25</v>
+      </c>
+      <c r="G44" s="69">
+        <v>172</v>
+      </c>
+      <c r="H44" s="69">
+        <v>169</v>
+      </c>
+      <c r="I44" s="69">
+        <v>170</v>
+      </c>
+      <c r="J44" s="69">
+        <v>171</v>
+      </c>
+      <c r="L44" s="69">
+        <v>25</v>
+      </c>
+      <c r="M44" s="69">
+        <v>192</v>
+      </c>
+      <c r="N44" s="69">
+        <v>189</v>
+      </c>
+      <c r="O44" s="69">
+        <v>190</v>
+      </c>
+      <c r="P44" s="69">
+        <v>191</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="32">
@@ -4432,7 +5086,7 @@
       <c r="Q46" s="66"/>
       <c r="R46" s="66"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="31">
         <v>92</v>
       </c>
@@ -4445,6 +5099,24 @@
       <c r="D47" s="10">
         <v>42132</v>
       </c>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="68"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P47" s="68"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="32">
@@ -4459,8 +5131,38 @@
       <c r="D48" s="8">
         <v>42133</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F48" s="69">
+        <v>21</v>
+      </c>
+      <c r="G48" s="69">
+        <v>220</v>
+      </c>
+      <c r="H48" s="69">
+        <v>201</v>
+      </c>
+      <c r="I48" s="69">
+        <v>202</v>
+      </c>
+      <c r="J48" s="69">
+        <v>219</v>
+      </c>
+      <c r="L48" s="69">
+        <v>21</v>
+      </c>
+      <c r="M48" s="69">
+        <v>240</v>
+      </c>
+      <c r="N48" s="69">
+        <v>221</v>
+      </c>
+      <c r="O48" s="69">
+        <v>222</v>
+      </c>
+      <c r="P48" s="69">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="31">
         <v>96</v>
       </c>
@@ -4473,8 +5175,38 @@
       <c r="D49" s="10">
         <v>42134</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F49" s="69">
+        <v>22</v>
+      </c>
+      <c r="G49" s="69">
+        <v>218</v>
+      </c>
+      <c r="H49" s="69">
+        <v>203</v>
+      </c>
+      <c r="I49" s="69">
+        <v>204</v>
+      </c>
+      <c r="J49" s="69">
+        <v>217</v>
+      </c>
+      <c r="L49" s="69">
+        <v>22</v>
+      </c>
+      <c r="M49" s="69">
+        <v>238</v>
+      </c>
+      <c r="N49" s="69">
+        <v>223</v>
+      </c>
+      <c r="O49" s="69">
+        <v>224</v>
+      </c>
+      <c r="P49" s="69">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="31">
         <v>98</v>
       </c>
@@ -4487,8 +5219,38 @@
       <c r="D50" s="8">
         <v>42135</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F50" s="69">
+        <v>23</v>
+      </c>
+      <c r="G50" s="69">
+        <v>216</v>
+      </c>
+      <c r="H50" s="69">
+        <v>205</v>
+      </c>
+      <c r="I50" s="69">
+        <v>206</v>
+      </c>
+      <c r="J50" s="69">
+        <v>215</v>
+      </c>
+      <c r="L50" s="69">
+        <v>23</v>
+      </c>
+      <c r="M50" s="69">
+        <v>236</v>
+      </c>
+      <c r="N50" s="69">
+        <v>225</v>
+      </c>
+      <c r="O50" s="69">
+        <v>226</v>
+      </c>
+      <c r="P50" s="69">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="32">
         <v>100</v>
       </c>
@@ -4501,8 +5263,38 @@
       <c r="D51" s="10">
         <v>42136</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F51" s="69">
+        <v>24</v>
+      </c>
+      <c r="G51" s="69">
+        <v>214</v>
+      </c>
+      <c r="H51" s="69">
+        <v>207</v>
+      </c>
+      <c r="I51" s="69">
+        <v>208</v>
+      </c>
+      <c r="J51" s="69">
+        <v>213</v>
+      </c>
+      <c r="L51" s="69">
+        <v>24</v>
+      </c>
+      <c r="M51" s="69">
+        <v>234</v>
+      </c>
+      <c r="N51" s="69">
+        <v>227</v>
+      </c>
+      <c r="O51" s="69">
+        <v>228</v>
+      </c>
+      <c r="P51" s="69">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="29">
         <v>102</v>
       </c>
@@ -4515,8 +5307,38 @@
       <c r="D52" s="8">
         <v>42137</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F52" s="69">
+        <v>25</v>
+      </c>
+      <c r="G52" s="69">
+        <v>212</v>
+      </c>
+      <c r="H52" s="69">
+        <v>209</v>
+      </c>
+      <c r="I52" s="69">
+        <v>210</v>
+      </c>
+      <c r="J52" s="69">
+        <v>211</v>
+      </c>
+      <c r="L52" s="69">
+        <v>25</v>
+      </c>
+      <c r="M52" s="69">
+        <v>232</v>
+      </c>
+      <c r="N52" s="69">
+        <v>229</v>
+      </c>
+      <c r="O52" s="69">
+        <v>230</v>
+      </c>
+      <c r="P52" s="69">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="29">
         <v>104</v>
       </c>
@@ -4530,7 +5352,7 @@
         <v>42138</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="30">
         <v>106</v>
       </c>
@@ -4544,7 +5366,7 @@
         <v>42139</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="29">
         <v>108</v>
       </c>
@@ -4557,8 +5379,26 @@
       <c r="D55" s="10">
         <v>42140</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F55" s="67"/>
+      <c r="G55" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J55" s="68"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P55" s="68"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="29">
         <v>110</v>
       </c>
@@ -4571,8 +5411,38 @@
       <c r="D56" s="8">
         <v>42141</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F56" s="69">
+        <v>21</v>
+      </c>
+      <c r="G56" s="69">
+        <v>260</v>
+      </c>
+      <c r="H56" s="69">
+        <v>241</v>
+      </c>
+      <c r="I56" s="69">
+        <v>242</v>
+      </c>
+      <c r="J56" s="69">
+        <v>259</v>
+      </c>
+      <c r="L56" s="69">
+        <v>21</v>
+      </c>
+      <c r="M56" s="69">
+        <v>280</v>
+      </c>
+      <c r="N56" s="69">
+        <v>261</v>
+      </c>
+      <c r="O56" s="69">
+        <v>262</v>
+      </c>
+      <c r="P56" s="69">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="30">
         <v>112</v>
       </c>
@@ -4585,8 +5455,38 @@
       <c r="D57" s="10">
         <v>42142</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F57" s="69">
+        <v>22</v>
+      </c>
+      <c r="G57" s="69">
+        <v>258</v>
+      </c>
+      <c r="H57" s="69">
+        <v>243</v>
+      </c>
+      <c r="I57" s="69">
+        <v>244</v>
+      </c>
+      <c r="J57" s="69">
+        <v>257</v>
+      </c>
+      <c r="L57" s="69">
+        <v>22</v>
+      </c>
+      <c r="M57" s="69">
+        <v>278</v>
+      </c>
+      <c r="N57" s="69">
+        <v>263</v>
+      </c>
+      <c r="O57" s="69">
+        <v>264</v>
+      </c>
+      <c r="P57" s="69">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="29">
         <v>114</v>
       </c>
@@ -4599,8 +5499,38 @@
       <c r="D58" s="8">
         <v>42143</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F58" s="69">
+        <v>23</v>
+      </c>
+      <c r="G58" s="69">
+        <v>256</v>
+      </c>
+      <c r="H58" s="69">
+        <v>245</v>
+      </c>
+      <c r="I58" s="69">
+        <v>246</v>
+      </c>
+      <c r="J58" s="69">
+        <v>255</v>
+      </c>
+      <c r="L58" s="69">
+        <v>23</v>
+      </c>
+      <c r="M58" s="69">
+        <v>276</v>
+      </c>
+      <c r="N58" s="69">
+        <v>265</v>
+      </c>
+      <c r="O58" s="69">
+        <v>266</v>
+      </c>
+      <c r="P58" s="69">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="29">
         <v>116</v>
       </c>
@@ -4613,8 +5543,38 @@
       <c r="D59" s="10">
         <v>42144</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F59" s="69">
+        <v>24</v>
+      </c>
+      <c r="G59" s="69">
+        <v>254</v>
+      </c>
+      <c r="H59" s="69">
+        <v>247</v>
+      </c>
+      <c r="I59" s="69">
+        <v>248</v>
+      </c>
+      <c r="J59" s="69">
+        <v>253</v>
+      </c>
+      <c r="L59" s="69">
+        <v>24</v>
+      </c>
+      <c r="M59" s="69">
+        <v>274</v>
+      </c>
+      <c r="N59" s="69">
+        <v>267</v>
+      </c>
+      <c r="O59" s="69">
+        <v>268</v>
+      </c>
+      <c r="P59" s="69">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="30">
         <v>118</v>
       </c>
@@ -4627,8 +5587,38 @@
       <c r="D60" s="8">
         <v>42145</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F60" s="69">
+        <v>25</v>
+      </c>
+      <c r="G60" s="69">
+        <v>252</v>
+      </c>
+      <c r="H60" s="69">
+        <v>249</v>
+      </c>
+      <c r="I60" s="69">
+        <v>250</v>
+      </c>
+      <c r="J60" s="69">
+        <v>251</v>
+      </c>
+      <c r="L60" s="69">
+        <v>25</v>
+      </c>
+      <c r="M60" s="69">
+        <v>272</v>
+      </c>
+      <c r="N60" s="69">
+        <v>269</v>
+      </c>
+      <c r="O60" s="69">
+        <v>270</v>
+      </c>
+      <c r="P60" s="69">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="29">
         <v>120</v>
       </c>
@@ -4642,7 +5632,7 @@
         <v>42146</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
         <v>122</v>
       </c>
@@ -4656,7 +5646,7 @@
         <v>42147</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="28">
         <v>124</v>
       </c>
@@ -4669,8 +5659,26 @@
       <c r="D63" s="10">
         <v>42148</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F63" s="67"/>
+      <c r="G63" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="68"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P63" s="68"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
         <v>126</v>
       </c>
@@ -4683,8 +5691,38 @@
       <c r="D64" s="8">
         <v>42149</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F64" s="69">
+        <v>21</v>
+      </c>
+      <c r="G64" s="69">
+        <v>300</v>
+      </c>
+      <c r="H64" s="69">
+        <v>281</v>
+      </c>
+      <c r="I64" s="69">
+        <v>282</v>
+      </c>
+      <c r="J64" s="69">
+        <v>259</v>
+      </c>
+      <c r="L64" s="69">
+        <v>21</v>
+      </c>
+      <c r="M64" s="69">
+        <v>320</v>
+      </c>
+      <c r="N64" s="69">
+        <v>301</v>
+      </c>
+      <c r="O64" s="69">
+        <v>302</v>
+      </c>
+      <c r="P64" s="69">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
         <v>128</v>
       </c>
@@ -4697,8 +5735,38 @@
       <c r="D65" s="10">
         <v>42150</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F65" s="69">
+        <v>22</v>
+      </c>
+      <c r="G65" s="69">
+        <v>298</v>
+      </c>
+      <c r="H65" s="69">
+        <v>283</v>
+      </c>
+      <c r="I65" s="69">
+        <v>284</v>
+      </c>
+      <c r="J65" s="69">
+        <v>257</v>
+      </c>
+      <c r="L65" s="69">
+        <v>22</v>
+      </c>
+      <c r="M65" s="69">
+        <v>318</v>
+      </c>
+      <c r="N65" s="69">
+        <v>303</v>
+      </c>
+      <c r="O65" s="69">
+        <v>304</v>
+      </c>
+      <c r="P65" s="69">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="28">
         <v>130</v>
       </c>
@@ -4711,8 +5779,38 @@
       <c r="D66" s="8">
         <v>42151</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F66" s="69">
+        <v>23</v>
+      </c>
+      <c r="G66" s="69">
+        <v>296</v>
+      </c>
+      <c r="H66" s="69">
+        <v>285</v>
+      </c>
+      <c r="I66" s="69">
+        <v>286</v>
+      </c>
+      <c r="J66" s="69">
+        <v>255</v>
+      </c>
+      <c r="L66" s="69">
+        <v>23</v>
+      </c>
+      <c r="M66" s="69">
+        <v>316</v>
+      </c>
+      <c r="N66" s="69">
+        <v>305</v>
+      </c>
+      <c r="O66" s="69">
+        <v>306</v>
+      </c>
+      <c r="P66" s="69">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="27">
         <v>132</v>
       </c>
@@ -4725,8 +5823,38 @@
       <c r="D67" s="10">
         <v>42152</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F67" s="69">
+        <v>24</v>
+      </c>
+      <c r="G67" s="69">
+        <v>294</v>
+      </c>
+      <c r="H67" s="69">
+        <v>287</v>
+      </c>
+      <c r="I67" s="69">
+        <v>288</v>
+      </c>
+      <c r="J67" s="69">
+        <v>253</v>
+      </c>
+      <c r="L67" s="69">
+        <v>24</v>
+      </c>
+      <c r="M67" s="69">
+        <v>314</v>
+      </c>
+      <c r="N67" s="69">
+        <v>307</v>
+      </c>
+      <c r="O67" s="69">
+        <v>308</v>
+      </c>
+      <c r="P67" s="69">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="27">
         <v>134</v>
       </c>
@@ -4739,8 +5867,38 @@
       <c r="D68" s="8">
         <v>42153</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F68" s="69">
+        <v>25</v>
+      </c>
+      <c r="G68" s="69">
+        <v>292</v>
+      </c>
+      <c r="H68" s="69">
+        <v>289</v>
+      </c>
+      <c r="I68" s="69">
+        <v>290</v>
+      </c>
+      <c r="J68" s="69">
+        <v>251</v>
+      </c>
+      <c r="L68" s="69">
+        <v>25</v>
+      </c>
+      <c r="M68" s="69">
+        <v>312</v>
+      </c>
+      <c r="N68" s="69">
+        <v>309</v>
+      </c>
+      <c r="O68" s="69">
+        <v>310</v>
+      </c>
+      <c r="P68" s="69">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="28">
         <v>136</v>
       </c>
@@ -4754,7 +5912,7 @@
         <v>42154</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="27">
         <v>138</v>
       </c>
@@ -4768,7 +5926,7 @@
         <v>42155</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="27">
         <v>140</v>
       </c>
@@ -4781,8 +5939,26 @@
       <c r="D71" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F71" s="67"/>
+      <c r="G71" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="68"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P71" s="68"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="45">
         <v>142</v>
       </c>
@@ -4795,8 +5971,38 @@
       <c r="D72" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F72" s="69">
+        <v>21</v>
+      </c>
+      <c r="G72" s="69">
+        <v>340</v>
+      </c>
+      <c r="H72" s="69">
+        <v>321</v>
+      </c>
+      <c r="I72" s="69">
+        <v>322</v>
+      </c>
+      <c r="J72" s="69">
+        <v>339</v>
+      </c>
+      <c r="L72" s="69">
+        <v>21</v>
+      </c>
+      <c r="M72" s="69">
+        <v>360</v>
+      </c>
+      <c r="N72" s="69">
+        <v>341</v>
+      </c>
+      <c r="O72" s="69">
+        <v>342</v>
+      </c>
+      <c r="P72" s="69">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="44">
         <v>144</v>
       </c>
@@ -4809,8 +6015,38 @@
       <c r="D73" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F73" s="69">
+        <v>22</v>
+      </c>
+      <c r="G73" s="69">
+        <v>338</v>
+      </c>
+      <c r="H73" s="69">
+        <v>323</v>
+      </c>
+      <c r="I73" s="69">
+        <v>324</v>
+      </c>
+      <c r="J73" s="69">
+        <v>337</v>
+      </c>
+      <c r="L73" s="69">
+        <v>22</v>
+      </c>
+      <c r="M73" s="69">
+        <v>358</v>
+      </c>
+      <c r="N73" s="69">
+        <v>343</v>
+      </c>
+      <c r="O73" s="69">
+        <v>344</v>
+      </c>
+      <c r="P73" s="69">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="44">
         <v>146</v>
       </c>
@@ -4823,8 +6059,38 @@
       <c r="D74" s="8">
         <v>42186</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F74" s="69">
+        <v>23</v>
+      </c>
+      <c r="G74" s="69">
+        <v>336</v>
+      </c>
+      <c r="H74" s="69">
+        <v>325</v>
+      </c>
+      <c r="I74" s="69">
+        <v>326</v>
+      </c>
+      <c r="J74" s="69">
+        <v>335</v>
+      </c>
+      <c r="L74" s="69">
+        <v>23</v>
+      </c>
+      <c r="M74" s="69">
+        <v>356</v>
+      </c>
+      <c r="N74" s="69">
+        <v>345</v>
+      </c>
+      <c r="O74" s="69">
+        <v>346</v>
+      </c>
+      <c r="P74" s="69">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="45">
         <v>148</v>
       </c>
@@ -4837,8 +6103,38 @@
       <c r="D75" s="10">
         <v>42187</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F75" s="69">
+        <v>24</v>
+      </c>
+      <c r="G75" s="69">
+        <v>334</v>
+      </c>
+      <c r="H75" s="69">
+        <v>327</v>
+      </c>
+      <c r="I75" s="69">
+        <v>328</v>
+      </c>
+      <c r="J75" s="69">
+        <v>333</v>
+      </c>
+      <c r="L75" s="69">
+        <v>24</v>
+      </c>
+      <c r="M75" s="69">
+        <v>354</v>
+      </c>
+      <c r="N75" s="69">
+        <v>347</v>
+      </c>
+      <c r="O75" s="69">
+        <v>348</v>
+      </c>
+      <c r="P75" s="69">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="44">
         <v>150</v>
       </c>
@@ -4851,8 +6147,38 @@
       <c r="D76" s="8">
         <v>42188</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F76" s="69">
+        <v>25</v>
+      </c>
+      <c r="G76" s="69">
+        <v>332</v>
+      </c>
+      <c r="H76" s="69">
+        <v>329</v>
+      </c>
+      <c r="I76" s="69">
+        <v>330</v>
+      </c>
+      <c r="J76" s="69">
+        <v>331</v>
+      </c>
+      <c r="L76" s="69">
+        <v>25</v>
+      </c>
+      <c r="M76" s="69">
+        <v>352</v>
+      </c>
+      <c r="N76" s="69">
+        <v>349</v>
+      </c>
+      <c r="O76" s="69">
+        <v>350</v>
+      </c>
+      <c r="P76" s="69">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="44">
         <v>152</v>
       </c>
@@ -4866,7 +6192,7 @@
         <v>42189</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="45">
         <v>154</v>
       </c>
@@ -4880,7 +6206,7 @@
         <v>42190</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="44">
         <v>156</v>
       </c>
@@ -4893,8 +6219,26 @@
       <c r="D79" s="10">
         <v>42191</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F79" s="67"/>
+      <c r="G79" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J79" s="68"/>
+      <c r="L79" s="67"/>
+      <c r="M79" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P79" s="68"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="44">
         <v>158</v>
       </c>
@@ -4907,8 +6251,38 @@
       <c r="D80" s="8">
         <v>42192</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F80" s="69">
+        <v>21</v>
+      </c>
+      <c r="G80" s="69">
+        <v>380</v>
+      </c>
+      <c r="H80" s="69">
+        <v>361</v>
+      </c>
+      <c r="I80" s="69">
+        <v>362</v>
+      </c>
+      <c r="J80" s="69">
+        <v>379</v>
+      </c>
+      <c r="L80" s="69">
+        <v>21</v>
+      </c>
+      <c r="M80" s="69">
+        <v>400</v>
+      </c>
+      <c r="N80" s="69">
+        <v>361</v>
+      </c>
+      <c r="O80" s="69">
+        <v>362</v>
+      </c>
+      <c r="P80" s="69">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="45">
         <v>160</v>
       </c>
@@ -4921,8 +6295,38 @@
       <c r="D81" s="10">
         <v>42193</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F81" s="69">
+        <v>22</v>
+      </c>
+      <c r="G81" s="69">
+        <v>378</v>
+      </c>
+      <c r="H81" s="69">
+        <v>363</v>
+      </c>
+      <c r="I81" s="69">
+        <v>364</v>
+      </c>
+      <c r="J81" s="69">
+        <v>377</v>
+      </c>
+      <c r="L81" s="69">
+        <v>22</v>
+      </c>
+      <c r="M81" s="69">
+        <v>378</v>
+      </c>
+      <c r="N81" s="69">
+        <v>363</v>
+      </c>
+      <c r="O81" s="69">
+        <v>364</v>
+      </c>
+      <c r="P81" s="69">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="22">
         <v>162</v>
       </c>
@@ -4935,8 +6339,38 @@
       <c r="D82" s="8">
         <v>42194</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F82" s="69">
+        <v>23</v>
+      </c>
+      <c r="G82" s="69">
+        <v>376</v>
+      </c>
+      <c r="H82" s="69">
+        <v>365</v>
+      </c>
+      <c r="I82" s="69">
+        <v>366</v>
+      </c>
+      <c r="J82" s="69">
+        <v>375</v>
+      </c>
+      <c r="L82" s="69">
+        <v>23</v>
+      </c>
+      <c r="M82" s="69">
+        <v>376</v>
+      </c>
+      <c r="N82" s="69">
+        <v>365</v>
+      </c>
+      <c r="O82" s="69">
+        <v>366</v>
+      </c>
+      <c r="P82" s="69">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="22">
         <v>164</v>
       </c>
@@ -4949,8 +6383,38 @@
       <c r="D83" s="10">
         <v>42195</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F83" s="69">
+        <v>24</v>
+      </c>
+      <c r="G83" s="69">
+        <v>374</v>
+      </c>
+      <c r="H83" s="69">
+        <v>367</v>
+      </c>
+      <c r="I83" s="69">
+        <v>368</v>
+      </c>
+      <c r="J83" s="69">
+        <v>373</v>
+      </c>
+      <c r="L83" s="69">
+        <v>24</v>
+      </c>
+      <c r="M83" s="69">
+        <v>374</v>
+      </c>
+      <c r="N83" s="69">
+        <v>367</v>
+      </c>
+      <c r="O83" s="69">
+        <v>368</v>
+      </c>
+      <c r="P83" s="69">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="21">
         <v>166</v>
       </c>
@@ -4963,8 +6427,38 @@
       <c r="D84" s="8">
         <v>42196</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F84" s="69">
+        <v>25</v>
+      </c>
+      <c r="G84" s="69">
+        <v>372</v>
+      </c>
+      <c r="H84" s="69">
+        <v>369</v>
+      </c>
+      <c r="I84" s="69">
+        <v>370</v>
+      </c>
+      <c r="J84" s="69">
+        <v>371</v>
+      </c>
+      <c r="L84" s="69">
+        <v>25</v>
+      </c>
+      <c r="M84" s="69">
+        <v>372</v>
+      </c>
+      <c r="N84" s="69">
+        <v>369</v>
+      </c>
+      <c r="O84" s="69">
+        <v>370</v>
+      </c>
+      <c r="P84" s="69">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="22">
         <v>168</v>
       </c>
@@ -4978,7 +6472,7 @@
         <v>42197</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="22">
         <v>170</v>
       </c>
@@ -4992,7 +6486,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="21">
         <v>172</v>
       </c>
@@ -5006,7 +6500,7 @@
         <v>42199</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="22">
         <v>174</v>
       </c>
@@ -5020,7 +6514,7 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="22">
         <v>176</v>
       </c>
@@ -5034,7 +6528,7 @@
         <v>42201</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="21">
         <v>178</v>
       </c>
@@ -5048,7 +6542,7 @@
         <v>42202</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="22">
         <v>180</v>
       </c>
@@ -5062,7 +6556,7 @@
         <v>42203</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="24">
         <v>182</v>
       </c>
@@ -5076,7 +6570,7 @@
         <v>42204</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="23">
         <v>184</v>
       </c>
@@ -5090,7 +6584,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="24">
         <v>186</v>
       </c>
@@ -5104,7 +6598,7 @@
         <v>42206</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="24">
         <v>188</v>
       </c>
@@ -5118,7 +6612,7 @@
         <v>42207</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="23">
         <v>190</v>
       </c>
@@ -6028,7 +7522,7 @@
         <v>42328</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="14">
         <v>320</v>
       </c>
@@ -6042,7 +7536,7 @@
         <v>42329</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="15">
         <v>322</v>
       </c>
@@ -6056,7 +7550,7 @@
         <v>42330</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="14">
         <v>324</v>
       </c>
@@ -6070,7 +7564,7 @@
         <v>42331</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="14">
         <v>326</v>
       </c>
@@ -6084,7 +7578,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="15">
         <v>328</v>
       </c>
@@ -6098,7 +7592,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="14">
         <v>330</v>
       </c>
@@ -6112,7 +7606,7 @@
         <v>42334</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="14">
         <v>332</v>
       </c>
@@ -6126,7 +7620,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="15">
         <v>334</v>
       </c>
@@ -6140,7 +7634,7 @@
         <v>42336</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="14">
         <v>336</v>
       </c>
@@ -6154,7 +7648,7 @@
         <v>42337</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="14">
         <v>338</v>
       </c>
@@ -6168,7 +7662,7 @@
         <v>42338</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="15">
         <v>340</v>
       </c>
@@ -6176,7 +7670,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="14">
         <v>342</v>
       </c>
@@ -6184,7 +7678,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="14">
         <v>344</v>
       </c>
@@ -6192,7 +7686,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="15">
         <v>346</v>
       </c>
@@ -6200,15 +7694,19 @@
         <v>42342</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="14">
         <v>348</v>
       </c>
       <c r="B175" s="9">
         <v>42343</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E175">
+        <f>32/2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="14">
         <v>350</v>
       </c>
@@ -6427,6 +7925,222 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F8:F12">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L12">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L20">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F28">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:L28">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L36">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F44">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:L44">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:F52">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:L52">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:F60">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56:L60">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64:F68">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64:L68">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:F76">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72:L76">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80:F84">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6438,7 +8152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L12">
+  <conditionalFormatting sqref="L80:L84">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6451,5 +8165,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>